--- a/src/analysis_examples/circadb/results_lomb/cosinor_10410460_ube2ql1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10410460_ube2ql1_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2623118342782169, 0.3996920328713157]</t>
+          <t>[0.265602119198119, 0.39640174795141364]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.866915066983665e-09</v>
+        <v>7.845430971542555e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.866915066983665e-09</v>
+        <v>7.845430971542555e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.05663176336954</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2578949563923096, -0.855368570346771]</t>
+          <t>[-1.2453160068283875, -0.8679475199106932]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>1.262665527690388e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>4.073859027897697e-10</v>
+        <v>1.262665527690388e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.5164180082905749</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4805946647993984, 0.5522413517817515]</t>
+          <t>[0.4806212484244121, 0.5522147681567378]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.025945945946052</v>
       </c>
       <c r="X2" t="n">
-        <v>3.259099099099187</v>
+        <v>3.307027027027112</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.792792792792918</v>
+        <v>4.744864864864993</v>
       </c>
     </row>
   </sheetData>
